--- a/业余爱好/羽毛球训练.xlsx
+++ b/业余爱好/羽毛球训练.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$77</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,14 +358,6 @@
   </si>
   <si>
     <t>体训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -958,6 +953,644 @@
 正手握拍基础上，拍面稍微左转一点点，大拇指定在第一棱线与第二棱线间的窄面上，此时反手打斜线球更方便顺手，被动时回反手直线高远球也不易出边线。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>手法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础技术</t>
+  </si>
+  <si>
+    <t>启动步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对手击球的一瞬间，双脚稍微起跳离开地面，使身体由地面反弹起来，落地瞬间快速移动出去,这种步法在移动的中起到加速的效果，可以使你的移动速度更快。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进行原地的启动小跳练习，最主要是养成这种启动的习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当右(左)脚向前(后)迈出一步后，后脚跟进，紧接着以同一脚向同一方向再进一步，为垫步。
+这一种步法比较轻捷、灵巧，不但能使移动的步数比较经济，而且还能保持移动中身体重心的稳定和有利于协助击球动作的完成。垫步一般作为调整步距用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进“之字形”垫步和后退“之字形”垫步。之字型步法”练习，比如说，向右边时，右脚先起动，向右前方并两步；向左边时，左脚先移动，向左前方并两步。
+注意的是，前进移动时，脚尖向外的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右脚交替向前、向侧或向后移动为交叉步。另一脚向前面的为前交叉步，而另一脚后面的为后交叉步。交叉步一殷在后退打后场球时后退得较多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧身交叉步移动，“之字形”后交叉步练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小碎步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以小的交叉步移动的称为小碎步。由于步幅小，步频快，一般在起动或回动起始时用。
+小碎步的调整为了更好的找到击球点或者是为了稳定重心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速原地碎步跑（这个练习是没有高抬腿练习这样把脚抬高的），高频率并步移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右脚向前(或向后)移动一步时，左脚即刻向右脚跟并一步，紧接着右脚再向前(向后)移动一步，称为并步。这种步法较多地运用在上网、左右接杀球和正手后退突击扣杀时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧身并步，侧身并步跳，这只需要半个羽毛球场就行了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹬转步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以一脚为轴，另一脚作向后或向前蹬转迈步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听口令变向跑，短距离来回跑，这两个可以在整个羽毛球场上练习。左右摸边，半个羽毛球场练习就足够了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹬跨步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在移动的最后一步，左脚用力向后蹬的同时，右脚向来球的方向跨出一大步，称为蹬跨步。
+多用于上网击球，在后场底线两角移动抽球时也常采用。
+跨步通常作为每次启动后的最后一步，一定要蹬地跨出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右摸边，跨步跳，大步走（向前迈一大步，前脚膝关节呈90度角，甚至可以更小，向下压两下后，换脚继续向前走。一般两个羽毛场的长度就可以了）前踢（踢一脚走两小步换脚踢，要求是需要过头的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾跳步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起跳腾空击球的步法为腾跳步。它可分为两种：一种是上网扑球或向两侧移动突击杀球时，以领先的脚(或双脚)起跳，作扑球或突击杀球；另一种是对方击来高远球时，用右脚(或双脚)起跳到最高点时杀球。
+使用这种步法，要求协调性好，弹跳力强，在击球后还要善于控制自己的身体重心，以便连贯好下一拍的击球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并步跳，向前腾空跳（这个方法田径练得多，就是向前腾空时，前脚膝关节呈90度），重跳，原地连续腾空跳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正手并步上网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右脚先出，左脚跟上，在并步过程中，重心是平稳向前移动的。所以并步的移动速度并不快，适合来球在自己控制的范围内采用。经常会和交叉步、垫步结合使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正手交叉步上网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先出右脚，然后左脚从右脚前交叉，接着右脚向前跨出一步。这是交叉步中最基本的三步上网，移动速度较快，适用于来球比较快的时候，比如：杀球之后的上网。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正手垫步上网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫步的过程中，右脚抬起，并未落地，左脚向前小跳一步。用于对于来球判断有小的差距，发现接不到球的时候。垫步之后，右脚向前落地形成弓箭步接球。垫步经常和并步、交叉步结合使用。
+还有一种是网前抢高点，扑球的时候，用垫步来快速到达网前。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正手蹬跨步上网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹬跨步的交叉是左脚从右脚后面交叉的。交叉步的时候，左脚在右脚前，蹬地的时候力量不足，无法达到将身体向前送的目的。从后门交叉之后的蹬地力量足，右脚向前跨的时候整个身体也在左脚蹬地的力量下向前快速移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有步法的最后一步，①右脚在跨步的时候是脚跟先落地，比较平稳；②跨步之后小腿与大腿的夹角大于90°，膝盖不超过脚尖，这样不仅可以保护膝盖，也可以更好的停止前进，避免受伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反手上网步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反手的上网和正手上网步法是一样的，也分为并步、交叉步、垫步和蹬跨步上网，其动作的要领基本都是一样。
+不一样的是：在反手上网的时候，身体首先要转动，使右脚和右手朝向上网的位置，使用反手握拍法回球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场两边杀球步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右方杀球：
+双脚启动后，左脚往右踏出半步，借用左脚力量将身体往右方送，再跨出右脚，脚后跟先着地，再用前掌卸力，完成击球后并步回到中场。
+左方杀球：
+第一种是双脚启动后，直接左脚往左方跨出，然后右脚蹬跨出击球。
+第二种是面对接近边线的杀球，启动后借用左脚力量将身体往左方送出，再顺其惯性，往左方跨出右脚，以借助肩部宽度而够到球，完成接球后用左脚将身体拉回中场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正手后场步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反手后场步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一种：双脚启动后，左脚往左后方退一步，再将身体往后转向右方，同时右脚顺势往后着地做重心脚，击球时双脚转换，将重心压前，然后并步回中场
+第二种：启动后左脚往左后方退一步，再借助左脚往后跳起，不需要交换双脚位置，击球后并步回中。
+第三种：反手击球时使用，启动后左脚往左后方踏出，身体同时转向左后方，再跨出右脚，脚跟先着地，同时击球，击球时借助腰部力量，击球后左脚用力蹬，身体迅速转回面向场前方，然后并步回中场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动是步法的关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回位的第一步，要小，快捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚尖稍稍朝外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚尖着地等待，在对方击球时微微下蹲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确的启动，熟练的移动，恰到好处的回动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第一种：启动之后，身体侧向右方，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到达正手后方击球位置，击球时双脚前后互换，重心向前转移，借助惯性并步回中。
+第二种：使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交叉步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到达正手后方，但击球时不用交换双脚站位，而是右脚最后踏出时击球，然后并步回中，这二中步法大多用于被动状态。
+第三种：往正手后方并半步然后跳起击球，然后并步回中场。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶后退步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶后退步法也可用并步和交叉步移动后退。
+判断来球，右脚蹬地撤向左后方，同时，髋和上半身向右后方转动（转动的幅度比正手后退要大些），且稍有后仰。接着，左脚用并步或交叉步后撤，右脚再退至来球位置用头顶击球技术击球，击球后，迅速回到中心位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起跳腾空突击步法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要运用于向左、右两侧稍后的位置移动，突然起跳拦截对方较低的平高球，它的特点是启动快，动作突然，常在对方尚未站稳时，给其以突击，是对方防不胜防。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从发球开始就运用高远球或进攻性的平高球压对方后场底线，迫使对方后退，当对方回球不够后时，以杀球制胜；或当对方疏于前场防守时，就可以以轻吊、搓球等技术轻取网前。轻吊必须在若干次高远球大力压住后场，对方又不能及时回到前场的基础上进行。这种打法主要是力量和后场的高、吊、杀技术的较量。对初学者，这是一种必须首先学习的基础打法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逼反手战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般而言，后场反手击球是绝大多数球友的弱项，因为反手击球一般都是以过度为主，进攻性不强，回球线路也较简单，所以不知道哪种战术更适合时，把球尽量送到对手的反手区域。如果先拉开对方位置，使对方反手区露出空当，然后把球打到反手区，迫使对方使用反拍击球。
+例如：先吊对方正手网前，对方挑高球，再以平高球攻击对方反手区；在重复攻击对方反手区迫使其远离中心位置时，突然吊对角网前等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢攻战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢攻战术一般多用于发球、接发球。多用于先发制人，可以根据规则，随心所欲地以任何方式将球快速打到对方接球区的任意一点。善于利用多变的发接发站术，能先发制人，取得主动。以发平快球和网前球配合，争取创造下一拍的主动进攻机会，组成了抢攻战术。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀边线战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要用全力，八成力就可以了。杀对方的边线，左边一个，右边一个。目的是要让对方左弯腰，右弯腰（很累的），消耗对方的体能！
+注意杀球时对于边线的把握，别自己先失误杀出界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉斜线战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对方的球是后场反手一个，正手前场一个，如此反复。吊前场时如果对方跑上来了就改挑后场，挑后场时如果对方急着向后退，就再吊前场。总而言之就时要让对方跑！这第一步就是要消耗对方的体能，并不一定要打死。如果前半局对方体能消耗过大，那么后半局你的赢率就会很高。这是一种最简单的前后场调动，把球打到对方的反方向,目的是消耗对方。
+反复的打对方的反方向，使对方跑动距离最大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常也称“杀上网”的打法。主要通过后场的高远球、扣杀、劈杀、吊球等技术，先发制人，然后快速上网以搓、推、扑、勾等技术，高点控制网前，导致对方直接失误，或被动击球过网，一举击破对方。这种打法是进攻型的打法，能够快速上网高点控制网前，速度耐力和力量耐力也要求较高。这种打法，体力消耗较大，如果碰上防守技术好的对手，体力就往往成为成败的关键因素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快拉快吊，前后结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以平高球快压对方后场两底角，配合快吊网前两角(或运用劈杀)引对方上网，当对方被动回击网前球时，随即迅速上网控制网前，以网前搓、钩球结合推后场底线两角，迫使对方疲于应付，为前场扑杀和中、后场大力扣杀创造机会。这也是一种积极主动、快速进攻的打法。这种打法，要求运动员身体素质好，特别是速度耐力要好，技术全面熟练，而且还具备突击进攻的特长技术。
+平高压后场，然后去控网前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守中反攻，攻守兼备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以平高球和快吊球击向对方前后左右四个角落，以调动对方。让对方先进攻，针对性地打出高远球、四方球、吊球等，加强防守，以快速灵活的步法、多变的球路和刁钻准确的落点，诱使对方在进攻中匆忙移动，勉强扣杀，造成击球失误，或当对方回球质量较差时，抓住有利战机，突击进攻。这一战术可用来对付那种盲目进攻而体力又差的对手。
+比赛开始，先以高球诱使对方进攻，在对方只顾进攻疏于防守时再下手。或者在对方体力下降，速度减慢时再发动进攻。这是以逸待劳，后发制人的战术。这种打法要求队员具有攻中有守，守中有攻的控球和反控球能力，不仅要有优良的速度耐力、灵活的步法、准确快速的反应和判断应变能力，更要有顽强的拼搏精神和心理素质，这样才能在逆境和被动中保持沉着冷静，并奋起反击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后场，以高远球、平高球和吊球，在前场则以放网前球、推球和挑球准确地攻击对方场区前后左右四个角落，调动对方前后左右奔跑，顾此失彼，待对方来不及回中心位置或回球质量差时，向其空档部位发动进攻制胜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制后场，高球压底（控后突前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下压为主，控制网前（杀上网）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复球战术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过自身出球的节奏变化和良好的击球动作一致性，针对对方球员的某一个技术薄弱点，或击球后回中心位置较快的特点，重复地将球攻击到对方场上的某一区域。如运用“重复压后场”战术来对付后场移动较慢或技术相对较差的对手；运用"重复压头顶"来攻击对方反手区的薄弱还击；运用"重复放网"来控制网前击球后习惯后退较多，缺乏封网意识的对手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复平高球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种战术的特点是以重复平高球进攻对方同一个后场区，甚至可连续重复数拍，以求达到置对方于死地或逼对方击出一半场高球，以利我方进行最后一击。这种战术对回动上网快。控制底线球能力差，以及侧身步法差的对手很有效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打四角球，高短结合（拉开突击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉开两边平高球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用平高球或挑球连续攻击对方两边后底线，以求获得主动权，或逼对方转为被动，以利于我方最后一击的战术。采用这种战术，要求击球方控制高球的出手速度、击球的准确性和动作的一致性等都比较好。这种战术对回动上网快，两底线攻击能力较弱的对手是很有效果的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢吊结合快吊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓慢吊（软吊）是指球从后场吊球至网前的速度较慢，且弧度较大，落点离网较近，采用这种技术结合乎高球是为了达到拉开对方站位的目的，有时也可得分。
+所谓快吊（劈吊）是指球从后场吊球至网前的速度较快，出球基本成一直线，落点离网较远。这是当对方站位被拉开，而身体重心失去控制的一瞬间，所采用的一种战术。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复杀球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当遇上一位防守时经常习惯反拉后场球的对手时，就可采用重复杀球的进攻战术。采用这种战术首先要了解对手的这一情况，然后先运用轻杀或短杀，此时，我方不能急于上网，而要调整好自己的位置，以利于采用重复杀的战术。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长杀结合短杀的进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长杀结合短杀（点杀、劈杀）战术，概括他说，就是“直线长杀，对角短杀”。它比起直线短杀结合对角长杀效果会更好。因为“直线长杀结合对角短杀”造成对方接杀时，需要移动的距离比较远，增加了防守的难度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重杀与轻杀的进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半场重杀，后场轻杀是这一战术的概括。当我方通过拉吊创造出半场球的机会时，应该采用重杀战术。反之球在后场我方还想采用杀球时，一般多用轻杀。因为半场球用重杀，哪怕是失去身体重心，也不至于造成控制不了网前的局面，但是，如果在后场采用重杀，万一失去身体重心，上网慢了就控制不住网前。而轻杀可使自己保持较好的身体重心位置，以利于下一步控制网前。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复搓球进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当碰到对方上网搓球之后习惯很快退后的对手时。我方就可采用重复搓球的战术，达到获得主动的机会及破坏对方后退进攻的意图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复推球进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当碰到对方从后场拦网前球之后迅速回动至中心的对手时，我方就可采用重复推球的战术。特别是反手网前推直线球威胁更大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边勾球进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当我方从网前勾对角网前球，对方回搓一直线网前并退后想进攻时，我方可以再勾一对角线球。运用这一战术来对付转体差的对手时更有效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻中路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以人为攻击目标。对付两名技术水平高低不一的对手时，一般都采用这种战术。对付两名实力相当的队员时也可采用这一战术。它集中攻势于对方一名队员，常能起到“集中优势兵力打歼灭战”的作用；如果对方另一队员过来协助，就会暴露出空挡，可在其仓促接应、立足不稳时偷袭他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻后场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种战术常用来对付后场扣杀能力较差的对手，把对方弱者调动到后场后使用。此战术多采用平高球、平推球、挑底线把对方一人紧逼在底线，使其在底线两角移动击球，在其还击出半场高球或网前高球时即可大力扣杀，取得这一回合的胜利或主动。如在逼底线两角时对方同伴要后退支援，则可攻击网前空挡或打后退者的追身球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后攻前封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后场队员积极大力扣杀创造机会，在对方接杀放网、挑高球或企图反击抽球时，前场队员以扑、搓、勾、推控制网前，使整个进攻连贯而又有节奏变化，让对方防不胜防。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对发球、接发球、平抽、挡、封网、扑、连续扣杀、接杀挑高球及防守反击等诸多技术，要求更高。两队员配合默契，相互信任，打法上攻守衔接及站位轮转协调一致，是打好双打的关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发球站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发球的站位不同，对发球的飞行路线、弧线、落点和第三拍的击球都有关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：发球者紧靠前发球线和中线
+这种站位始于反手发网前内角，球过网后球托向下，不易被对方扑击。由于站位靠前，也便于第三拍封网。但站位靠前不利于发平快球，一般是发往前内角位球配合发双打后发球线的外交位平高球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：发球者站位离前发球线半米，靠中线
+这种站位发球的选择面较广，正、反手都可发网前球、平快球、平高球，并且各种路线都可以发。缺点是球的飞行时间长，对方有较多时间判断处理，发球后如果抢网较慢也容易失去网前主动权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C：发球者站在离中线较远处
+这种站位主要用于在右场区以正手和左场区以反手发平快球攻对方双打后发球线的内角位，配合发网前外角。值得一提的是，这种发球只能作为一种变换手段。因为这种发球只对反应慢、攻击力差的对手有一定威胁，但对方有了准备时作用就不大了，而且还会使自己陷入被动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发球线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：调动对方站位，破坏对方打法
+如对方甲、乙两名队员站成甲在后、乙在前的进攻队形，在发球给乙时可以后场为主结合网前，而发球给甲时却要以发网前为主结合后场，这样，从发球就阻挠了对方调整站位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：避实就虚，抓住对方弱点发球抢攻
+首先要看接发球者的站位，如果他紧压网前站在网前内角位，可用发网前与后场动作的一致性发球到对方后场外角位；如对方离中线较远，则可发平快球突袭后场内角位；对接发球路线呆板、变化少的，可针对这种情况发球后抢封角度突击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C：发球要有变化
+发球时，网前要和后场配合，网前的内角、外角，底线的内角、外交位的配合，使对方首尾难于兼顾，多点设防，疲于应付；在发球的弧线上也要有变化。这样，接球方就难以摸到发球方的规律了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发球时间的变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接发球方在准备接发球时，思想虽然高度集中，但因受到发球方的牵制，他要等球发出后才能判断、启动、还击。所以，发球动作的快、慢也应在规则允许的范围内有所变化，不要给接球方掌握规律。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发球时心理的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在双打比赛中，有时会出现发球失常。其原因，一个是发球技术不过硬；另一个原因则是受接发球者的影响。由于接球者站位逼前，扑、杀凶狠且命中率较高，加之比分正出于关键时，心情紧张，造成手软从而影响了发球质量。遇到这种情况，首先要沉住气，观察接发球者的动向，心理意图，接发球的路线和规律，提高发球质量，增强还击第三板的信心。另外，发球的路线要善变且无规律，真真假假、虚虚实实，这样就会减少不必要的顾虑，发球质量也会稳定下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接发球虽然受发球方的牵制，属于被动等待，但由于规则对发球作了击球点不能过腰、球拍上沿须明显低于手、动作必须连续向前挥动(不许做假动作)、不能迟迟不发等等的诸多限制，所以使发球者发出的球不能具有太大的威胁。接发球方如果判断准确，启动快、还击及时，就能在对方发球质量稍差时杀、扑得手或取得主动；反之，也会接发球失误或还击不利使自己陷入被动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接发内角位网前球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以扑或轻压对方两边中场及发球者身体为主要攻击点，配合网前搓、勾等其他线路。</t>
+  </si>
+  <si>
+    <t>接发外角位网前球</t>
+  </si>
+  <si>
+    <t>除了以上打的点外，还可以平推对方底线两角以调动对方一名队员至边角，扩大对方另一队员的防守范围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接发内角、外角位后场球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应以发球者为攻击点，力争扣杀追身球。如启动慢了，可用平高球打到对方底线两角。一般发球者在后场球发出后，后退准备接杀的情况居多，这时可用拦截吊球，落点可选择在发球者的对角。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方前后站立时把球下压或轻推到边线半场处。这种战术多半是在接发网前球和守中反攻抢网时运用。这种球对方前场队员拦截不到，后场队员只能以下手击球放网或挑高球，后场两角便会露出很大空挡，因而有隙可乘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方左右站位时把球打在两人的中间。这种战术可以造成守方两人抢接或让球，难于协调；限制对手在接杀球时挑大角度高球调动攻方；有利于攻方的封网，由于打对方中路，对方回球的角度也小，网前队员封网的难度就小了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守球路
+A：攻方杀球者和封网队员在半边场前后站位时，接杀球应打到另半边场地
+B：攻方杀球者和封网者在前后对角位上，接杀球可还击到杀球者的网前或封网者的后场
+C：攻方杀球者杀对角后，如果另一名队员想要退到后场去助攻时，接杀球时可以还击到网前中路或直线网前。
+D：把攻方杀来的直线球挑对角，杀来的对角球挑直线，以调动杀球者。
+防守的方法很多，但目的都是为了破坏攻方的进攻节奏和进攻势头。当攻方进攻势头一减，即可平抽或蹲挡，若攻方站位混乱出现空挡时，守方即可抓住战机转守为攻取得主动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整站位
+为了摆脱被动，伺机转入反攻，首先要调整好防守时的站位。如果是网前挑高球，那么击球者应该直线后退，切记对角后退。直线后退线路短、站位快、对角后退线路长，也容易被对方打追身球。另一名队员应根据同伴移动后的情况补到空挡位。双打防守时的站位调整，都是一名队员在跑动击球时，另一名队员根据同伴的移动情况填补空挡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打法选择：
+1. 自身条件
+一般来讲，身材的高矮、力量的大小、体力的好差等等，都可影响到打法的选择。例如，身材较高、力量较大的人可以攻击性较强的后场下压的打法为主；身材不高，但体力好、身体较灵活者，可以守中反攻的打法为主等等。
+2. 技术掌握情况
+基本技术掌握较全面、攻守技术较佳者，可以快拉快吊打法为主、杀球技术掌握得很好，且杀球有力、落点控制较好，网前技术也不错者，则以后场下压、上网控制网前的打法为主；控制球的能力较强，且有耐心者，则可选择打四方球；防守技术掌握得很好，且步子灵活、移动快，则可选择守中反攻的打法为主等等。
+3. 性格和气质特点
+性格属外向型，且气质类型又为胆汁质者，较适合于选择全攻型的打法；性格内向，气质类型又为粘液质者，宜选择打四方球，活守中反攻的打法；性格属中间型，气质类型为多血质和粘液质混合型者，则以选择攻守具全的快拉快吊的打法较好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何运用战术：
+1. 知己知彼
+ 知己知彼是制定战术的依据。如了解到对方的网前技术较差，那么对付他的主要战术应当是攻前场；对手的身体灵活性较差，那就多运用打对角线战术。知己知彼，还有一层意思，即了解对方短处、己方之长处的同时，了解对方的长处和自己的短处，以制定出避实就虚、扬长避短的战术。
+2. 以我为主
+不论运用哪种战术，都要坚持以我为主的打法。以我为主即比赛时坚持赛前所制定的战术，而不能因比赛中出现了一二次失误即刻就盲目地改变战术。另外，以我为主还应在比赛中坚持自己的打法特点。因为每位选手的打法特点是经过各方面的选择后和在长期的练习中形成的，不能轻易更改，否则必将失去自身的优势。
+3. 随机应变
+球类比赛场上的情况是千变万化的，为此，对战术的运用也必须有应变的能力。在比赛中，选手除了要坚持既定的战术之外，还要不断地检验战术的效果。如在比赛时频频得手，打得很顺当，就应当将战术坚持下去，如双方僵持不下或本方比分落后，本方应尽快找出原因，改变对策，制定新的战术。例如，本方原以打网前球为主，交手后对方主动靠前站位保护前场，这时，本方就应一改初衷，去压对方的后场。再如，本方原施行打杀、吊上网为主的战术，面对出色的防守，就不妨改用打四方球战术，以准确的落点来调动对方的站位，使其被动后，再实施进攻战术；当自身的特长打法被对方所遏制时，本方可以辅助打法去摆脱对方，使其战术失效。总之，根据临场情况随机应变，才能保证在比赛中经常处于主动地位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1032,25 +1665,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1059,10 +1707,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,20 +1992,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="87" style="1" customWidth="1"/>
     <col min="5" max="5" width="226.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1380,24 +2028,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1405,10 +2053,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,10 +2064,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1427,10 +2075,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1440,18 +2088,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
+    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1459,10 +2107,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1470,10 +2118,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1481,10 +2129,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1494,34 +2142,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1529,28 +2177,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1560,10 +2208,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="7"/>
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1571,10 +2219,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1582,18 +2230,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1601,10 +2249,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="7" t="s">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1614,26 +2262,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1641,26 +2289,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7" t="s">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1670,10 +2318,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1681,10 +2329,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1692,10 +2340,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1703,10 +2351,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7"/>
+    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1714,20 +2362,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7"/>
+    <row r="34" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="1:6" ht="213.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1737,366 +2385,1240 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="7"/>
+    <row r="38" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
+    <row r="39" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="1" t="s">
+    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="399" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="242.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="171" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="99.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="171" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="114" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="256.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="C48" s="6"/>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="7"/>
-      <c r="D50" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="C51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="7"/>
-      <c r="D52" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="171" x14ac:dyDescent="0.2">
-      <c r="C53" s="7"/>
-      <c r="D53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="C54" s="7"/>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="C55" s="7"/>
-      <c r="D55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="D59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="D60" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="D61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="D62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="171" x14ac:dyDescent="0.2">
-      <c r="D63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="C64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="D65" s="7"/>
-      <c r="E65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="3:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="D66" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="D76" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D74" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D75" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="13"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="13"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="13"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="13"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="13"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="171" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="13"/>
+      <c r="B88" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="13"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="13"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="99.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="13"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="13"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="13"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" ht="128.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" ht="171" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="11"/>
+      <c r="B118" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="1:6" ht="114" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="11"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="11"/>
+      <c r="B125" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="11"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:6" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="11"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="11"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="1:6" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6" ht="57" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <autoFilter ref="A1:A77"/>
+  <mergeCells count="37">
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="B99:B117"/>
+    <mergeCell ref="B46:B76"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="A2:A44"/>
     <mergeCell ref="C29:C34"/>
     <mergeCell ref="B18:B34"/>
@@ -2109,11 +3631,24 @@
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C23:C28"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A46:A97"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A99:A137"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C52:C56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2123,10 +3658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,8 +3670,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>153</v>
+      <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" ht="228" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
